--- a/src/analysis/wating_rate_formatted.xlsx
+++ b/src/analysis/wating_rate_formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoyok\gitRepo\m5231142DingLab_SharePoint\Ding-Lab - m5231142\drlFX\src\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E05CC53-1336-41B9-A7AD-6946929FC69F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E06840-B050-49F8-999C-16FD29F26EAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13230" yWindow="1665" windowWidth="12825" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2706,7 +2706,7 @@
                   <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Percentage </a:t>
+                  <a:t>Ratio </a:t>
                 </a:r>
                 <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="0"/>
               </a:p>
@@ -3630,7 +3630,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
-                  <a:t>Waiting Percentage </a:t>
+                  <a:t>Waiting Ratio </a:t>
                 </a:r>
                 <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
               </a:p>
@@ -3801,6 +3801,990 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10212707139418224"/>
+          <c:y val="9.4676621984174342E-2"/>
+          <c:w val="0.83716271412818954"/>
+          <c:h val="0.78473615012541176"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$54:$J$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.73024699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74598770000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78395066666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92901233333333322</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77376516666666673</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94783933333333348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84043200000000018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77654316666666656</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9651236666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A88-40F7-A904-0D21A38E2BCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="830583391"/>
+        <c:axId val="830472383"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="830583391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>Test</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="830472383"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="830472383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>Waiting Ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7613412228796843E-2"/>
+              <c:y val="1.8775961692403975E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="830583391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.47972371057168151"/>
+          <c:y val="1.8441012803159313E-2"/>
+          <c:w val="0.10068055102579633"/>
+          <c:h val="5.0532454238044644E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7972419378148925E-2"/>
+          <c:y val="9.7062469554839215E-2"/>
+          <c:w val="0.87667072782909861"/>
+          <c:h val="0.84222895255459107"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>0.67530866666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71882699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78796299999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83240749999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89660466666666672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89907416666666673</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87067899999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93518533333333342</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87716050000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90524700000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84876533333333348</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.82160516666666661</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83024700000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7117283333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76327183333333337</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.70895066666666684</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.729321</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.75308616666666683</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.76851849999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.7129629999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.78765433333333323</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.70802466666666675</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.70401250000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.70277783333333332</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76574066666666674</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.69351850000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7342591666666668</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.74320983333333335</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.71203716666666672</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.78765450000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.68888899999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.69197516666666681</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.69567900000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.70308649999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.6993828333333334</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.70462966666666682</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74135799999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.72808633333333328</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.69753083333333343</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.72253083333333334</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.69413583333333329</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.70154316666666672</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.66820983333333317</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.70462949999999991</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.74722216666666663</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.7104166666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7520-4F75-B0D6-1DB10138D157}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="830587135"/>
+        <c:axId val="830594623"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="830587135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>Episode</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4497479297388105"/>
+              <c:y val="0.88556101931428632"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="830594623"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="830594623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>Waiting Ratio </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.1874221503972512E-2"/>
+              <c:y val="2.6544677217417392E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="830587135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44761609347698816"/>
+          <c:y val="3.8390368985045914E-2"/>
+          <c:w val="8.254704608114434E-2"/>
+          <c:h val="4.5299180389183798E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3881,6 +4865,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4398,6 +5462,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4982,6 +7078,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B2B8D8-588D-41A8-B73C-01B2875F1729}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>214311</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B621977-4A5A-4D66-9A66-EE6DFD3D6613}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5255,9 +7423,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48:I48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
